--- a/trunk/SRS ENTREGA/ListaCasosUso v (0.0.1).xlsx
+++ b/trunk/SRS ENTREGA/ListaCasosUso v (0.0.1).xlsx
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Hipotecar (deshipotecar) </t>
   </si>
   <si>
-    <t>Perfil (crear, modificar, eliminar, consultar(otros perfiles)).</t>
-  </si>
-  <si>
     <t>Negociar (intercambio de propiedades) (revisar con miguel)</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Verificar. Dueños propiedades, transacción (estado financiero), los tragos por propiedad, declarar bancarrota , ir al cárcel, salir de la cárcel.</t>
+  </si>
+  <si>
+    <t>Perfil (crear, modificar, eliminar, consultar(otros perfiles), guardar).</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -479,10 +479,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/SRS ENTREGA/ListaCasosUso v (0.0.1).xlsx
+++ b/trunk/SRS ENTREGA/ListaCasosUso v (0.0.1).xlsx
@@ -66,9 +66,6 @@
     <t>Cerrar partida (abandonar y finalizar)</t>
   </si>
   <si>
-    <t>Generar Partida (crear, inicializar (Asignar propiedades iniciales, escoger ficha,asignar dinero) )</t>
-  </si>
-  <si>
     <t>Comprar bienes (Tragos, propiedades(servicios, parqueaderos,comunes... etc.)).</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Perfil (crear, modificar, eliminar, consultar(otros perfiles), guardar).</t>
+  </si>
+  <si>
+    <t>Generar Partida (crear, inicializar (Mostrar tablero, asignar propiedades iniciales, escoger ficha,asignar dinero) )</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -479,10 +479,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
